--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2651492.383006257</v>
+        <v>2649240.30329505</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>84.22290965228935</v>
+        <v>128.7363964403894</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>94.41743113184259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>62.46694583764086</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>20.29515656310171</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>16.61609021060037</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.84759100840658</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>329.4707338994842</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.33703994142866</v>
+        <v>129.1078928223875</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187881</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120542</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>216.4795114578133</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573429</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>95.21019414968984</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>261.8890829640565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409626</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079031337</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654138</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.901740067214</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>690.6749427105746</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>521.7387597826677</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>521.7387597826677</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>373.8256662002746</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>226.9357187023642</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>226.9357187023642</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408143</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="X4" t="n">
-        <v>872.3234075408143</v>
+        <v>742.0651425065849</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.3234075408143</v>
+        <v>742.0651425065849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.306770649777</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2735.306770649777</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>651.9203821015085</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>482.9841991736016</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>482.9841991736016</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>335.0711055912085</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>651.9203821015085</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>651.9203821015085</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2786.829352882803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2413.363594621723</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.224262645911</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,19 +5054,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>114.2598873597744</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>448.1846595309951</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.50206557031</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424032</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,10 +5282,10 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5501,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,31 +5531,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061504</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,16 +5768,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674524</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438167</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6315,16 +6315,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6446,37 +6446,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.7363435406111</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>941.1773875143809</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.3848083708508</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,22 +7020,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>107.2784330767837</v>
+        <v>19.50758019582483</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988314</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9259388694749475</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.4467738245944</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53.40527886852252</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462252</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286541</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575596</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304638987</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.183430613418999e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972769</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181806</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="H4" t="n">
         <v>12386.9201818181</v>
@@ -26442,13 +26442,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26476,19 +26476,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871419.2253507283</v>
+        <v>-871419.2253507286</v>
       </c>
       <c r="C6" t="n">
-        <v>457325.5203768639</v>
+        <v>457325.5203768642</v>
       </c>
       <c r="D6" t="n">
-        <v>457325.5203768637</v>
+        <v>457325.5203768641</v>
       </c>
       <c r="E6" t="n">
-        <v>206795.367938924</v>
+        <v>206760.6300134885</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.8297462796</v>
+        <v>532173.0918208447</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462797</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="H6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="I6" t="n">
-        <v>532207.82974628</v>
+        <v>532173.0918208443</v>
       </c>
       <c r="J6" t="n">
-        <v>314676.6273490026</v>
+        <v>314641.8894235663</v>
       </c>
       <c r="K6" t="n">
-        <v>532207.8297462796</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="L6" t="n">
-        <v>532207.8297462796</v>
+        <v>532173.0918208446</v>
       </c>
       <c r="M6" t="n">
-        <v>447152.8018107674</v>
+        <v>447118.0638853326</v>
       </c>
       <c r="N6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.0918208443</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.0918208444</v>
       </c>
       <c r="P6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.0918208443</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>285.5081910261797</v>
+        <v>240.9947042380796</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.41454905009471</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.28806907667993</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>307.4571019070332</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>332.6248785068126</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.57345701452466</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>19.77023481792884</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.523608934806495e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.401802549279227e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28272,13 +28272,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.786695838533452e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-5.377319120776078e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.62609764791297e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.48734819374</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422587</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32783,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>626.4629682828346</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707329</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678997</v>
@@ -35498,19 +35498,19 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>483.8667238383902</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
